--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>1266.754156628217</v>
+        <v>3120.971436030457</v>
       </c>
       <c r="R2">
-        <v>1266.754156628217</v>
+        <v>28088.74292427411</v>
       </c>
       <c r="S2">
-        <v>0.0005815140126056539</v>
+        <v>0.001326584748226816</v>
       </c>
       <c r="T2">
-        <v>0.0005815140126056539</v>
+        <v>0.001326584748226816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>1507.715513344525</v>
+        <v>3431.397266676317</v>
       </c>
       <c r="R3">
-        <v>1507.715513344525</v>
+        <v>30882.57540008685</v>
       </c>
       <c r="S3">
-        <v>0.000692129323945917</v>
+        <v>0.001458532822994912</v>
       </c>
       <c r="T3">
-        <v>0.000692129323945917</v>
+        <v>0.001458532822994912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>550.7452084257143</v>
+        <v>1384.154981804036</v>
       </c>
       <c r="R4">
-        <v>550.7452084257143</v>
+        <v>12457.39483623632</v>
       </c>
       <c r="S4">
-        <v>0.0002528241603938703</v>
+        <v>0.0005883420997850749</v>
       </c>
       <c r="T4">
-        <v>0.0002528241603938703</v>
+        <v>0.000588342099785075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>716.9550137334249</v>
+        <v>1901.96247578183</v>
       </c>
       <c r="R5">
-        <v>716.9550137334249</v>
+        <v>17117.66228203646</v>
       </c>
       <c r="S5">
-        <v>0.0003291241514482974</v>
+        <v>0.0008084388030417294</v>
       </c>
       <c r="T5">
-        <v>0.0003291241514482974</v>
+        <v>0.0008084388030417294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>677296.4026270369</v>
+        <v>738458.6556895216</v>
       </c>
       <c r="R6">
-        <v>677296.4026270369</v>
+        <v>6646127.901205694</v>
       </c>
       <c r="S6">
-        <v>0.3109185367612075</v>
+        <v>0.3138855993760005</v>
       </c>
       <c r="T6">
-        <v>0.3109185367612075</v>
+        <v>0.3138855993760005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>806131.3933962712</v>
+        <v>811909.0688985606</v>
       </c>
       <c r="R7">
-        <v>806131.3933962712</v>
+        <v>7307181.620087045</v>
       </c>
       <c r="S7">
-        <v>0.3700613089038672</v>
+        <v>0.3451060702810466</v>
       </c>
       <c r="T7">
-        <v>0.3700613089038672</v>
+        <v>0.3451060702810466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>294467.356968217</v>
+        <v>327507.3957193972</v>
       </c>
       <c r="R8">
-        <v>294467.356968217</v>
+        <v>2947566.561474575</v>
       </c>
       <c r="S8">
-        <v>0.1351776849801378</v>
+        <v>0.1392086806938008</v>
       </c>
       <c r="T8">
-        <v>0.1351776849801378</v>
+        <v>0.1392086806938008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>383334.8792314907</v>
+        <v>450026.7566768136</v>
       </c>
       <c r="R9">
-        <v>383334.8792314907</v>
+        <v>4050240.810091322</v>
       </c>
       <c r="S9">
-        <v>0.1759730588821992</v>
+        <v>0.1912861568706826</v>
       </c>
       <c r="T9">
-        <v>0.1759730588821992</v>
+        <v>0.1912861568706826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>364.7894523125688</v>
+        <v>413.7699134543733</v>
       </c>
       <c r="R10">
-        <v>364.7894523125688</v>
+        <v>3723.92922108936</v>
       </c>
       <c r="S10">
-        <v>0.0001674596266848953</v>
+        <v>0.0001758750016507183</v>
       </c>
       <c r="T10">
-        <v>0.0001674596266848953</v>
+        <v>0.0001758750016507183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>434.1795236891679</v>
+        <v>454.9253266688268</v>
       </c>
       <c r="R11">
-        <v>434.1795236891679</v>
+        <v>4094.327940019441</v>
       </c>
       <c r="S11">
-        <v>0.0001993137150492895</v>
+        <v>0.0001933683189066772</v>
       </c>
       <c r="T11">
-        <v>0.0001993137150492895</v>
+        <v>0.0001933683189066772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>158.5990793037139</v>
+        <v>183.5075068027333</v>
       </c>
       <c r="R12">
-        <v>158.5990793037139</v>
+        <v>1651.5675612246</v>
       </c>
       <c r="S12">
-        <v>7.280622409556702E-05</v>
+        <v>7.80007970913256E-05</v>
       </c>
       <c r="T12">
-        <v>7.280622409556702E-05</v>
+        <v>7.800079709132561E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>206.4628131860361</v>
+        <v>252.15701749538</v>
       </c>
       <c r="R13">
-        <v>206.4628131860361</v>
+        <v>2269.41315745842</v>
       </c>
       <c r="S13">
-        <v>9.477846851455042E-05</v>
+        <v>0.000107180620016565</v>
       </c>
       <c r="T13">
-        <v>9.477846851455042E-05</v>
+        <v>0.000107180620016565</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>3740.655837523648</v>
+        <v>4311.530112660478</v>
       </c>
       <c r="R14">
-        <v>3740.655837523648</v>
+        <v>38803.77101394431</v>
       </c>
       <c r="S14">
-        <v>0.001717179118357972</v>
+        <v>0.001832637755970869</v>
       </c>
       <c r="T14">
-        <v>0.001717179118357972</v>
+        <v>0.001832637755970869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>4452.20156318967</v>
+        <v>4740.374254303628</v>
       </c>
       <c r="R15">
-        <v>4452.20156318967</v>
+        <v>42663.36828873265</v>
       </c>
       <c r="S15">
-        <v>0.002043820091209258</v>
+        <v>0.002014920134816924</v>
       </c>
       <c r="T15">
-        <v>0.002043820091209258</v>
+        <v>0.002014920134816924</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>1626.320520131093</v>
+        <v>1912.169337963424</v>
       </c>
       <c r="R16">
-        <v>1626.320520131093</v>
+        <v>17209.52404167082</v>
       </c>
       <c r="S16">
-        <v>0.0007465759370086756</v>
+        <v>0.0008127772816131894</v>
       </c>
       <c r="T16">
-        <v>0.0007465759370086756</v>
+        <v>0.0008127772816131895</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>2117.128997233593</v>
+        <v>2627.505139205512</v>
       </c>
       <c r="R17">
-        <v>2117.128997233593</v>
+        <v>23647.54625284961</v>
       </c>
       <c r="S17">
-        <v>0.000971885643274365</v>
+        <v>0.001116834394354769</v>
       </c>
       <c r="T17">
-        <v>0.000971885643274365</v>
+        <v>0.001116834394354769</v>
       </c>
     </row>
   </sheetData>
